--- a/biology/Médecine/Bejel/Bejel.xlsx
+++ b/biology/Médecine/Bejel/Bejel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bejel ou syphilis endémique non vénérienne est une tréponématose - ensemble de maladies provoquées par les tréponèmes - due à Treponema pallidum endemicum qui se manifeste par une maladie chronique de la peau.
 La transmission de la maladie n'est ni vénérienne ni congénitale mais se fait habituellement par un contact direct entre des lésions cutanées et des muqueuses et par l’intermédiaire d'ustensiles tels que des couverts ou des verres.
@@ -513,7 +525,9 @@
           <t>Clinique et évolution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le bejel évolue en plusieurs phases :
 Initialement une période dite « récente », composée de deux stades, primaire et secondaire, souvent indissociables et caractérisés par l'apparition de lésions infectieuses et contagieuses.
@@ -547,7 +561,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le traitement de choix est une antibiothérapie par la pénicilline G retard Benzathine-Pénicilline (BP) ou Extencilline en une injection intramusculaire unique. En cas d'allergie aux pénicillines les traitements alternatifs sont les tétracyclines ou l'érythromycine (macrolide).
 Il faut traiter les sujets malades mais aussi les sujets à sérologie positive et les sujets contacts.
